--- a/데이터/중도탈락 학생 현황_학교별평균값/전처리 후/2023_전문대_학교별.xlsx
+++ b/데이터/중도탈락 학생 현황_학교별평균값/전처리 후/2023_전문대_학교별.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J172"/>
+  <dimension ref="A1:K172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,10 +476,15 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>신입생</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>신입생_자퇴학생</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>신입생_자퇴학생비율</t>
         </is>
@@ -516,13 +521,16 @@
         <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>11.8</v>
+        <v>3.52</v>
       </c>
       <c r="I2" t="n">
+        <v>142</v>
+      </c>
+      <c r="J2" t="n">
         <v>6</v>
       </c>
-      <c r="J2" t="n">
-        <v>14.08</v>
+      <c r="K2" t="n">
+        <v>4.23</v>
       </c>
     </row>
     <row r="3">
@@ -556,13 +564,16 @@
         <v>138</v>
       </c>
       <c r="H3" t="n">
-        <v>9.390000000000001</v>
+        <v>5.81</v>
       </c>
       <c r="I3" t="n">
+        <v>754</v>
+      </c>
+      <c r="J3" t="n">
         <v>76</v>
       </c>
-      <c r="J3" t="n">
-        <v>11.8</v>
+      <c r="K3" t="n">
+        <v>10.08</v>
       </c>
     </row>
     <row r="4">
@@ -596,13 +607,16 @@
         <v>144</v>
       </c>
       <c r="H4" t="n">
-        <v>10.88</v>
+        <v>3.55</v>
       </c>
       <c r="I4" t="n">
+        <v>1268</v>
+      </c>
+      <c r="J4" t="n">
         <v>47</v>
       </c>
-      <c r="J4" t="n">
-        <v>9.31</v>
+      <c r="K4" t="n">
+        <v>3.71</v>
       </c>
     </row>
     <row r="5">
@@ -636,13 +650,16 @@
         <v>102</v>
       </c>
       <c r="H5" t="n">
-        <v>4.86</v>
+        <v>2.49</v>
       </c>
       <c r="I5" t="n">
+        <v>866</v>
+      </c>
+      <c r="J5" t="n">
         <v>44</v>
       </c>
-      <c r="J5" t="n">
-        <v>14.67</v>
+      <c r="K5" t="n">
+        <v>5.08</v>
       </c>
     </row>
     <row r="6">
@@ -676,13 +693,16 @@
         <v>17</v>
       </c>
       <c r="H6" t="n">
-        <v>8.529999999999999</v>
+        <v>3.37</v>
       </c>
       <c r="I6" t="n">
+        <v>104</v>
+      </c>
+      <c r="J6" t="n">
         <v>6</v>
       </c>
-      <c r="J6" t="n">
-        <v>10.58</v>
+      <c r="K6" t="n">
+        <v>5.77</v>
       </c>
     </row>
     <row r="7">
@@ -716,13 +736,16 @@
         <v>49</v>
       </c>
       <c r="H7" t="n">
-        <v>15.13</v>
+        <v>5.33</v>
       </c>
       <c r="I7" t="n">
+        <v>296</v>
+      </c>
+      <c r="J7" t="n">
         <v>14</v>
       </c>
-      <c r="J7" t="n">
-        <v>7.77</v>
+      <c r="K7" t="n">
+        <v>4.73</v>
       </c>
     </row>
     <row r="8">
@@ -756,13 +779,16 @@
         <v>41</v>
       </c>
       <c r="H8" t="n">
-        <v>7.19</v>
+        <v>3.21</v>
       </c>
       <c r="I8" t="n">
+        <v>306</v>
+      </c>
+      <c r="J8" t="n">
         <v>13</v>
       </c>
-      <c r="J8" t="n">
-        <v>5.88</v>
+      <c r="K8" t="n">
+        <v>4.25</v>
       </c>
     </row>
     <row r="9">
@@ -796,13 +822,16 @@
         <v>359</v>
       </c>
       <c r="H9" t="n">
-        <v>8.35</v>
+        <v>4.88</v>
       </c>
       <c r="I9" t="n">
+        <v>2068</v>
+      </c>
+      <c r="J9" t="n">
         <v>173</v>
       </c>
-      <c r="J9" t="n">
-        <v>8.699999999999999</v>
+      <c r="K9" t="n">
+        <v>8.369999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -836,13 +865,16 @@
         <v>25</v>
       </c>
       <c r="H10" t="n">
-        <v>7.76</v>
+        <v>2.18</v>
       </c>
       <c r="I10" t="n">
+        <v>376</v>
+      </c>
+      <c r="J10" t="n">
         <v>10</v>
       </c>
-      <c r="J10" t="n">
-        <v>7.71</v>
+      <c r="K10" t="n">
+        <v>2.66</v>
       </c>
     </row>
     <row r="11">
@@ -876,13 +908,16 @@
         <v>77</v>
       </c>
       <c r="H11" t="n">
-        <v>13.67</v>
+        <v>6.23</v>
       </c>
       <c r="I11" t="n">
+        <v>378</v>
+      </c>
+      <c r="J11" t="n">
         <v>28</v>
       </c>
-      <c r="J11" t="n">
-        <v>12.17</v>
+      <c r="K11" t="n">
+        <v>7.41</v>
       </c>
     </row>
     <row r="12">
@@ -916,13 +951,16 @@
         <v>449</v>
       </c>
       <c r="H12" t="n">
-        <v>9.4</v>
+        <v>4.43</v>
       </c>
       <c r="I12" t="n">
+        <v>2745</v>
+      </c>
+      <c r="J12" t="n">
         <v>144</v>
       </c>
-      <c r="J12" t="n">
-        <v>7.58</v>
+      <c r="K12" t="n">
+        <v>5.25</v>
       </c>
     </row>
     <row r="13">
@@ -956,13 +994,16 @@
         <v>253</v>
       </c>
       <c r="H13" t="n">
-        <v>5.25</v>
+        <v>3.97</v>
       </c>
       <c r="I13" t="n">
+        <v>1821</v>
+      </c>
+      <c r="J13" t="n">
         <v>106</v>
       </c>
-      <c r="J13" t="n">
-        <v>6.21</v>
+      <c r="K13" t="n">
+        <v>5.82</v>
       </c>
     </row>
     <row r="14">
@@ -996,13 +1037,16 @@
         <v>242</v>
       </c>
       <c r="H14" t="n">
-        <v>5.03</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
+        <v>2354</v>
+      </c>
+      <c r="J14" t="n">
         <v>110</v>
       </c>
-      <c r="J14" t="n">
-        <v>5.06</v>
+      <c r="K14" t="n">
+        <v>4.67</v>
       </c>
     </row>
     <row r="15">
@@ -1036,13 +1080,16 @@
         <v>38</v>
       </c>
       <c r="H15" t="n">
-        <v>14.26</v>
+        <v>1.91</v>
       </c>
       <c r="I15" t="n">
+        <v>814</v>
+      </c>
+      <c r="J15" t="n">
         <v>25</v>
       </c>
-      <c r="J15" t="n">
-        <v>22.24</v>
+      <c r="K15" t="n">
+        <v>3.07</v>
       </c>
     </row>
     <row r="16">
@@ -1076,13 +1123,16 @@
         <v>44</v>
       </c>
       <c r="H16" t="n">
-        <v>10.76</v>
+        <v>3.88</v>
       </c>
       <c r="I16" t="n">
+        <v>391</v>
+      </c>
+      <c r="J16" t="n">
         <v>22</v>
       </c>
-      <c r="J16" t="n">
-        <v>8.44</v>
+      <c r="K16" t="n">
+        <v>5.63</v>
       </c>
     </row>
     <row r="17">
@@ -1116,13 +1166,16 @@
         <v>62</v>
       </c>
       <c r="H17" t="n">
-        <v>5.49</v>
+        <v>4.26</v>
       </c>
       <c r="I17" t="n">
+        <v>425</v>
+      </c>
+      <c r="J17" t="n">
         <v>30</v>
       </c>
-      <c r="J17" t="n">
-        <v>8.24</v>
+      <c r="K17" t="n">
+        <v>7.06</v>
       </c>
     </row>
     <row r="18">
@@ -1156,13 +1209,16 @@
         <v>99</v>
       </c>
       <c r="H18" t="n">
-        <v>5.08</v>
+        <v>2.96</v>
       </c>
       <c r="I18" t="n">
+        <v>1124</v>
+      </c>
+      <c r="J18" t="n">
         <v>53</v>
       </c>
-      <c r="J18" t="n">
-        <v>4.89</v>
+      <c r="K18" t="n">
+        <v>4.72</v>
       </c>
     </row>
     <row r="19">
@@ -1196,13 +1252,16 @@
         <v>215</v>
       </c>
       <c r="H19" t="n">
-        <v>6.79</v>
+        <v>4.73</v>
       </c>
       <c r="I19" t="n">
+        <v>1722</v>
+      </c>
+      <c r="J19" t="n">
         <v>137</v>
       </c>
-      <c r="J19" t="n">
-        <v>8.890000000000001</v>
+      <c r="K19" t="n">
+        <v>7.96</v>
       </c>
     </row>
     <row r="20">
@@ -1236,13 +1295,16 @@
         <v>287</v>
       </c>
       <c r="H20" t="n">
-        <v>8.06</v>
+        <v>4.49</v>
       </c>
       <c r="I20" t="n">
+        <v>2073</v>
+      </c>
+      <c r="J20" t="n">
         <v>120</v>
       </c>
-      <c r="J20" t="n">
-        <v>6.9</v>
+      <c r="K20" t="n">
+        <v>5.79</v>
       </c>
     </row>
     <row r="21">
@@ -1276,13 +1338,16 @@
         <v>161</v>
       </c>
       <c r="H21" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1233</v>
+      </c>
+      <c r="J21" t="n">
+        <v>79</v>
+      </c>
+      <c r="K21" t="n">
         <v>6.41</v>
-      </c>
-      <c r="I21" t="n">
-        <v>79</v>
-      </c>
-      <c r="J21" t="n">
-        <v>6.57</v>
       </c>
     </row>
     <row r="22">
@@ -1316,13 +1381,16 @@
         <v>50</v>
       </c>
       <c r="H22" t="n">
-        <v>8.51</v>
+        <v>3.2</v>
       </c>
       <c r="I22" t="n">
+        <v>635</v>
+      </c>
+      <c r="J22" t="n">
         <v>40</v>
       </c>
-      <c r="J22" t="n">
-        <v>12.91</v>
+      <c r="K22" t="n">
+        <v>6.3</v>
       </c>
     </row>
     <row r="23">
@@ -1356,13 +1424,16 @@
         <v>17</v>
       </c>
       <c r="H23" t="n">
-        <v>14.29</v>
+        <v>8.1</v>
       </c>
       <c r="I23" t="n">
+        <v>33</v>
+      </c>
+      <c r="J23" t="n">
         <v>1</v>
       </c>
-      <c r="J23" t="n">
-        <v>6.06</v>
+      <c r="K23" t="n">
+        <v>3.03</v>
       </c>
     </row>
     <row r="24">
@@ -1396,13 +1467,16 @@
         <v>152</v>
       </c>
       <c r="H24" t="n">
-        <v>5.39</v>
+        <v>3.25</v>
       </c>
       <c r="I24" t="n">
+        <v>1432</v>
+      </c>
+      <c r="J24" t="n">
         <v>70</v>
       </c>
-      <c r="J24" t="n">
-        <v>5.24</v>
+      <c r="K24" t="n">
+        <v>4.89</v>
       </c>
     </row>
     <row r="25">
@@ -1436,13 +1510,16 @@
         <v>260</v>
       </c>
       <c r="H25" t="n">
-        <v>7.83</v>
+        <v>3.83</v>
       </c>
       <c r="I25" t="n">
+        <v>2455</v>
+      </c>
+      <c r="J25" t="n">
         <v>140</v>
       </c>
-      <c r="J25" t="n">
-        <v>8.27</v>
+      <c r="K25" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="26">
@@ -1476,13 +1553,16 @@
         <v>594</v>
       </c>
       <c r="H26" t="n">
-        <v>18.06</v>
+        <v>13</v>
       </c>
       <c r="I26" t="n">
+        <v>1401</v>
+      </c>
+      <c r="J26" t="n">
         <v>450</v>
       </c>
-      <c r="J26" t="n">
-        <v>33.98</v>
+      <c r="K26" t="n">
+        <v>32.12</v>
       </c>
     </row>
     <row r="27">
@@ -1516,12 +1596,15 @@
         <v>22</v>
       </c>
       <c r="H27" t="n">
-        <v>2.04</v>
+        <v>1.73</v>
       </c>
       <c r="I27" t="n">
+        <v>310</v>
+      </c>
+      <c r="J27" t="n">
         <v>11</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>3.55</v>
       </c>
     </row>
@@ -1556,13 +1639,16 @@
         <v>80</v>
       </c>
       <c r="H28" t="n">
-        <v>12.34</v>
+        <v>3.89</v>
       </c>
       <c r="I28" t="n">
+        <v>718</v>
+      </c>
+      <c r="J28" t="n">
         <v>43</v>
       </c>
-      <c r="J28" t="n">
-        <v>14.35</v>
+      <c r="K28" t="n">
+        <v>5.99</v>
       </c>
     </row>
     <row r="29">
@@ -1599,9 +1685,12 @@
         <v>1.52</v>
       </c>
       <c r="I29" t="n">
+        <v>166</v>
+      </c>
+      <c r="J29" t="n">
         <v>3</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>1.81</v>
       </c>
     </row>
@@ -1636,13 +1725,16 @@
         <v>165</v>
       </c>
       <c r="H30" t="n">
-        <v>13.33</v>
+        <v>5.14</v>
       </c>
       <c r="I30" t="n">
+        <v>744</v>
+      </c>
+      <c r="J30" t="n">
         <v>58</v>
       </c>
-      <c r="J30" t="n">
-        <v>12.37</v>
+      <c r="K30" t="n">
+        <v>7.8</v>
       </c>
     </row>
     <row r="31">
@@ -1676,13 +1768,16 @@
         <v>78</v>
       </c>
       <c r="H31" t="n">
-        <v>8.859999999999999</v>
+        <v>4.58</v>
       </c>
       <c r="I31" t="n">
+        <v>528</v>
+      </c>
+      <c r="J31" t="n">
         <v>43</v>
       </c>
-      <c r="J31" t="n">
-        <v>11.17</v>
+      <c r="K31" t="n">
+        <v>8.140000000000001</v>
       </c>
     </row>
     <row r="32">
@@ -1716,12 +1811,15 @@
         <v>11</v>
       </c>
       <c r="H32" t="n">
-        <v>2.66</v>
+        <v>2.25</v>
       </c>
       <c r="I32" t="n">
+        <v>153</v>
+      </c>
+      <c r="J32" t="n">
         <v>4</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>2.61</v>
       </c>
     </row>
@@ -1756,13 +1854,16 @@
         <v>227</v>
       </c>
       <c r="H33" t="n">
-        <v>14.91</v>
+        <v>4.71</v>
       </c>
       <c r="I33" t="n">
+        <v>1756</v>
+      </c>
+      <c r="J33" t="n">
         <v>123</v>
       </c>
-      <c r="J33" t="n">
-        <v>12.81</v>
+      <c r="K33" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -1796,13 +1897,16 @@
         <v>90</v>
       </c>
       <c r="H34" t="n">
-        <v>15.73</v>
+        <v>4.66</v>
       </c>
       <c r="I34" t="n">
+        <v>527</v>
+      </c>
+      <c r="J34" t="n">
         <v>33</v>
       </c>
-      <c r="J34" t="n">
-        <v>9.68</v>
+      <c r="K34" t="n">
+        <v>6.26</v>
       </c>
     </row>
     <row r="35">
@@ -1836,13 +1940,16 @@
         <v>90</v>
       </c>
       <c r="H35" t="n">
-        <v>7.33</v>
+        <v>1.84</v>
       </c>
       <c r="I35" t="n">
+        <v>1753</v>
+      </c>
+      <c r="J35" t="n">
         <v>38</v>
       </c>
-      <c r="J35" t="n">
-        <v>7.42</v>
+      <c r="K35" t="n">
+        <v>2.17</v>
       </c>
     </row>
     <row r="36">
@@ -1876,13 +1983,16 @@
         <v>331</v>
       </c>
       <c r="H36" t="n">
-        <v>5.94</v>
+        <v>3.91</v>
       </c>
       <c r="I36" t="n">
+        <v>2686</v>
+      </c>
+      <c r="J36" t="n">
         <v>144</v>
       </c>
-      <c r="J36" t="n">
-        <v>6.55</v>
+      <c r="K36" t="n">
+        <v>5.36</v>
       </c>
     </row>
     <row r="37">
@@ -1916,13 +2026,16 @@
         <v>209</v>
       </c>
       <c r="H37" t="n">
-        <v>15.64</v>
+        <v>6.04</v>
       </c>
       <c r="I37" t="n">
+        <v>884</v>
+      </c>
+      <c r="J37" t="n">
         <v>72</v>
       </c>
-      <c r="J37" t="n">
-        <v>18.78</v>
+      <c r="K37" t="n">
+        <v>8.140000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1956,13 +2069,16 @@
         <v>66</v>
       </c>
       <c r="H38" t="n">
-        <v>5.44</v>
+        <v>3.78</v>
       </c>
       <c r="I38" t="n">
+        <v>473</v>
+      </c>
+      <c r="J38" t="n">
         <v>23</v>
       </c>
-      <c r="J38" t="n">
-        <v>5.71</v>
+      <c r="K38" t="n">
+        <v>4.86</v>
       </c>
     </row>
     <row r="39">
@@ -1996,13 +2112,16 @@
         <v>307</v>
       </c>
       <c r="H39" t="n">
-        <v>5.43</v>
+        <v>2.96</v>
       </c>
       <c r="I39" t="n">
+        <v>3204</v>
+      </c>
+      <c r="J39" t="n">
         <v>150</v>
       </c>
-      <c r="J39" t="n">
-        <v>5.81</v>
+      <c r="K39" t="n">
+        <v>4.68</v>
       </c>
     </row>
     <row r="40">
@@ -2036,13 +2155,16 @@
         <v>99</v>
       </c>
       <c r="H40" t="n">
-        <v>7.4</v>
+        <v>3.9</v>
       </c>
       <c r="I40" t="n">
+        <v>782</v>
+      </c>
+      <c r="J40" t="n">
         <v>47</v>
       </c>
-      <c r="J40" t="n">
-        <v>6.78</v>
+      <c r="K40" t="n">
+        <v>6.01</v>
       </c>
     </row>
     <row r="41">
@@ -2076,13 +2198,16 @@
         <v>166</v>
       </c>
       <c r="H41" t="n">
-        <v>11.77</v>
+        <v>3.48</v>
       </c>
       <c r="I41" t="n">
+        <v>1521</v>
+      </c>
+      <c r="J41" t="n">
         <v>92</v>
       </c>
-      <c r="J41" t="n">
-        <v>15.91</v>
+      <c r="K41" t="n">
+        <v>6.05</v>
       </c>
     </row>
     <row r="42">
@@ -2116,13 +2241,16 @@
         <v>249</v>
       </c>
       <c r="H42" t="n">
-        <v>6.92</v>
+        <v>3.87</v>
       </c>
       <c r="I42" t="n">
+        <v>1867</v>
+      </c>
+      <c r="J42" t="n">
         <v>93</v>
       </c>
-      <c r="J42" t="n">
-        <v>5.36</v>
+      <c r="K42" t="n">
+        <v>4.98</v>
       </c>
     </row>
     <row r="43">
@@ -2156,13 +2284,16 @@
         <v>104</v>
       </c>
       <c r="H43" t="n">
-        <v>14.18</v>
+        <v>3.32</v>
       </c>
       <c r="I43" t="n">
+        <v>1160</v>
+      </c>
+      <c r="J43" t="n">
         <v>57</v>
       </c>
-      <c r="J43" t="n">
-        <v>20.43</v>
+      <c r="K43" t="n">
+        <v>4.91</v>
       </c>
     </row>
     <row r="44">
@@ -2196,13 +2327,16 @@
         <v>231</v>
       </c>
       <c r="H44" t="n">
-        <v>5.46</v>
+        <v>4.12</v>
       </c>
       <c r="I44" t="n">
+        <v>1801</v>
+      </c>
+      <c r="J44" t="n">
         <v>126</v>
       </c>
-      <c r="J44" t="n">
-        <v>7.94</v>
+      <c r="K44" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -2236,13 +2370,16 @@
         <v>305</v>
       </c>
       <c r="H45" t="n">
-        <v>8.02</v>
+        <v>3.71</v>
       </c>
       <c r="I45" t="n">
+        <v>2701</v>
+      </c>
+      <c r="J45" t="n">
         <v>151</v>
       </c>
-      <c r="J45" t="n">
-        <v>7.92</v>
+      <c r="K45" t="n">
+        <v>5.59</v>
       </c>
     </row>
     <row r="46">
@@ -2276,13 +2413,16 @@
         <v>179</v>
       </c>
       <c r="H46" t="n">
-        <v>5.69</v>
+        <v>4.25</v>
       </c>
       <c r="I46" t="n">
+        <v>1245</v>
+      </c>
+      <c r="J46" t="n">
         <v>74</v>
       </c>
-      <c r="J46" t="n">
-        <v>6.18</v>
+      <c r="K46" t="n">
+        <v>5.94</v>
       </c>
     </row>
     <row r="47">
@@ -2316,13 +2456,16 @@
         <v>101</v>
       </c>
       <c r="H47" t="n">
-        <v>15.92</v>
+        <v>7.18</v>
       </c>
       <c r="I47" t="n">
+        <v>459</v>
+      </c>
+      <c r="J47" t="n">
         <v>33</v>
       </c>
-      <c r="J47" t="n">
-        <v>13.94</v>
+      <c r="K47" t="n">
+        <v>7.19</v>
       </c>
     </row>
     <row r="48">
@@ -2356,13 +2499,16 @@
         <v>466</v>
       </c>
       <c r="H48" t="n">
-        <v>7.44</v>
+        <v>4.67</v>
       </c>
       <c r="I48" t="n">
+        <v>2891</v>
+      </c>
+      <c r="J48" t="n">
         <v>230</v>
       </c>
-      <c r="J48" t="n">
-        <v>10.07</v>
+      <c r="K48" t="n">
+        <v>7.96</v>
       </c>
     </row>
     <row r="49">
@@ -2396,13 +2542,16 @@
         <v>67</v>
       </c>
       <c r="H49" t="n">
-        <v>8.52</v>
+        <v>2.16</v>
       </c>
       <c r="I49" t="n">
+        <v>989</v>
+      </c>
+      <c r="J49" t="n">
         <v>27</v>
       </c>
-      <c r="J49" t="n">
-        <v>11.22</v>
+      <c r="K49" t="n">
+        <v>2.73</v>
       </c>
     </row>
     <row r="50">
@@ -2436,13 +2585,16 @@
         <v>182</v>
       </c>
       <c r="H50" t="n">
-        <v>13.86</v>
+        <v>4.47</v>
       </c>
       <c r="I50" t="n">
+        <v>1224</v>
+      </c>
+      <c r="J50" t="n">
         <v>95</v>
       </c>
-      <c r="J50" t="n">
-        <v>10.38</v>
+      <c r="K50" t="n">
+        <v>7.76</v>
       </c>
     </row>
     <row r="51">
@@ -2476,13 +2628,16 @@
         <v>421</v>
       </c>
       <c r="H51" t="n">
-        <v>14.03</v>
+        <v>6.34</v>
       </c>
       <c r="I51" t="n">
+        <v>1807</v>
+      </c>
+      <c r="J51" t="n">
         <v>138</v>
       </c>
-      <c r="J51" t="n">
-        <v>9.74</v>
+      <c r="K51" t="n">
+        <v>7.64</v>
       </c>
     </row>
     <row r="52">
@@ -2516,13 +2671,16 @@
         <v>263</v>
       </c>
       <c r="H52" t="n">
-        <v>11.55</v>
+        <v>5.81</v>
       </c>
       <c r="I52" t="n">
+        <v>739</v>
+      </c>
+      <c r="J52" t="n">
         <v>58</v>
       </c>
-      <c r="J52" t="n">
-        <v>9.07</v>
+      <c r="K52" t="n">
+        <v>7.85</v>
       </c>
     </row>
     <row r="53">
@@ -2556,13 +2714,16 @@
         <v>267</v>
       </c>
       <c r="H53" t="n">
-        <v>7.41</v>
+        <v>3.93</v>
       </c>
       <c r="I53" t="n">
+        <v>2145</v>
+      </c>
+      <c r="J53" t="n">
         <v>132</v>
       </c>
-      <c r="J53" t="n">
-        <v>7.97</v>
+      <c r="K53" t="n">
+        <v>6.15</v>
       </c>
     </row>
     <row r="54">
@@ -2596,13 +2757,16 @@
         <v>643</v>
       </c>
       <c r="H54" t="n">
-        <v>8.699999999999999</v>
+        <v>6.75</v>
       </c>
       <c r="I54" t="n">
+        <v>3247</v>
+      </c>
+      <c r="J54" t="n">
         <v>370</v>
       </c>
-      <c r="J54" t="n">
-        <v>11.86</v>
+      <c r="K54" t="n">
+        <v>11.4</v>
       </c>
     </row>
     <row r="55">
@@ -2636,13 +2800,16 @@
         <v>45</v>
       </c>
       <c r="H55" t="n">
-        <v>2.41</v>
+        <v>1.48</v>
       </c>
       <c r="I55" t="n">
+        <v>964</v>
+      </c>
+      <c r="J55" t="n">
         <v>22</v>
       </c>
-      <c r="J55" t="n">
-        <v>4.46</v>
+      <c r="K55" t="n">
+        <v>2.28</v>
       </c>
     </row>
     <row r="56">
@@ -2676,13 +2843,16 @@
         <v>50</v>
       </c>
       <c r="H56" t="n">
-        <v>7.61</v>
+        <v>4.76</v>
       </c>
       <c r="I56" t="n">
+        <v>296</v>
+      </c>
+      <c r="J56" t="n">
         <v>18</v>
       </c>
-      <c r="J56" t="n">
-        <v>7.43</v>
+      <c r="K56" t="n">
+        <v>6.08</v>
       </c>
     </row>
     <row r="57">
@@ -2716,13 +2886,16 @@
         <v>233</v>
       </c>
       <c r="H57" t="n">
-        <v>8.619999999999999</v>
+        <v>7.17</v>
       </c>
       <c r="I57" t="n">
+        <v>1377</v>
+      </c>
+      <c r="J57" t="n">
         <v>167</v>
       </c>
-      <c r="J57" t="n">
-        <v>12.71</v>
+      <c r="K57" t="n">
+        <v>12.13</v>
       </c>
     </row>
     <row r="58">
@@ -2756,13 +2929,16 @@
         <v>273</v>
       </c>
       <c r="H58" t="n">
-        <v>10.96</v>
+        <v>4.39</v>
       </c>
       <c r="I58" t="n">
+        <v>1698</v>
+      </c>
+      <c r="J58" t="n">
         <v>113</v>
       </c>
-      <c r="J58" t="n">
-        <v>9.949999999999999</v>
+      <c r="K58" t="n">
+        <v>6.65</v>
       </c>
     </row>
     <row r="59">
@@ -2796,13 +2972,16 @@
         <v>103</v>
       </c>
       <c r="H59" t="n">
-        <v>12.7</v>
+        <v>7.04</v>
       </c>
       <c r="I59" t="n">
+        <v>512</v>
+      </c>
+      <c r="J59" t="n">
         <v>60</v>
       </c>
-      <c r="J59" t="n">
-        <v>15.63</v>
+      <c r="K59" t="n">
+        <v>11.72</v>
       </c>
     </row>
     <row r="60">
@@ -2836,13 +3015,16 @@
         <v>202</v>
       </c>
       <c r="H60" t="n">
-        <v>16.23</v>
+        <v>6.27</v>
       </c>
       <c r="I60" t="n">
+        <v>1195</v>
+      </c>
+      <c r="J60" t="n">
         <v>100</v>
       </c>
-      <c r="J60" t="n">
-        <v>21.09</v>
+      <c r="K60" t="n">
+        <v>8.369999999999999</v>
       </c>
     </row>
     <row r="61">
@@ -2876,13 +3058,16 @@
         <v>236</v>
       </c>
       <c r="H61" t="n">
-        <v>13.31</v>
+        <v>4.57</v>
       </c>
       <c r="I61" t="n">
+        <v>1374</v>
+      </c>
+      <c r="J61" t="n">
         <v>89</v>
       </c>
-      <c r="J61" t="n">
-        <v>10.26</v>
+      <c r="K61" t="n">
+        <v>6.48</v>
       </c>
     </row>
     <row r="62">
@@ -2916,13 +3101,16 @@
         <v>113</v>
       </c>
       <c r="H62" t="n">
-        <v>8.66</v>
+        <v>3.39</v>
       </c>
       <c r="I62" t="n">
+        <v>942</v>
+      </c>
+      <c r="J62" t="n">
         <v>37</v>
       </c>
-      <c r="J62" t="n">
-        <v>6.37</v>
+      <c r="K62" t="n">
+        <v>3.93</v>
       </c>
     </row>
     <row r="63">
@@ -2956,13 +3144,16 @@
         <v>76</v>
       </c>
       <c r="H63" t="n">
-        <v>7.69</v>
+        <v>3.26</v>
       </c>
       <c r="I63" t="n">
+        <v>761</v>
+      </c>
+      <c r="J63" t="n">
         <v>41</v>
       </c>
-      <c r="J63" t="n">
-        <v>8.94</v>
+      <c r="K63" t="n">
+        <v>5.39</v>
       </c>
     </row>
     <row r="64">
@@ -2996,13 +3187,16 @@
         <v>52</v>
       </c>
       <c r="H64" t="n">
-        <v>17.55</v>
+        <v>6.38</v>
       </c>
       <c r="I64" t="n">
+        <v>322</v>
+      </c>
+      <c r="J64" t="n">
         <v>28</v>
       </c>
-      <c r="J64" t="n">
-        <v>16.46</v>
+      <c r="K64" t="n">
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="65">
@@ -3036,13 +3230,16 @@
         <v>282</v>
       </c>
       <c r="H65" t="n">
-        <v>5.83</v>
+        <v>2.79</v>
       </c>
       <c r="I65" t="n">
+        <v>3419</v>
+      </c>
+      <c r="J65" t="n">
         <v>152</v>
       </c>
-      <c r="J65" t="n">
-        <v>6.11</v>
+      <c r="K65" t="n">
+        <v>4.45</v>
       </c>
     </row>
     <row r="66">
@@ -3076,13 +3273,16 @@
         <v>58</v>
       </c>
       <c r="H66" t="n">
-        <v>4.98</v>
+        <v>3.65</v>
       </c>
       <c r="I66" t="n">
+        <v>516</v>
+      </c>
+      <c r="J66" t="n">
         <v>32</v>
       </c>
-      <c r="J66" t="n">
-        <v>6.4</v>
+      <c r="K66" t="n">
+        <v>6.2</v>
       </c>
     </row>
     <row r="67">
@@ -3116,7 +3316,7 @@
         <v>57</v>
       </c>
       <c r="H67" t="n">
-        <v>14.8</v>
+        <v>14.54</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -3124,6 +3324,7 @@
       <c r="J67" t="n">
         <v>0</v>
       </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -3156,13 +3357,16 @@
         <v>14</v>
       </c>
       <c r="H68" t="n">
-        <v>8.98</v>
+        <v>2.06</v>
       </c>
       <c r="I68" t="n">
+        <v>211</v>
+      </c>
+      <c r="J68" t="n">
         <v>3</v>
       </c>
-      <c r="J68" t="n">
-        <v>13.27</v>
+      <c r="K68" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="69">
@@ -3196,13 +3400,16 @@
         <v>235</v>
       </c>
       <c r="H69" t="n">
-        <v>6.1</v>
+        <v>3.29</v>
       </c>
       <c r="I69" t="n">
+        <v>2207</v>
+      </c>
+      <c r="J69" t="n">
         <v>111</v>
       </c>
-      <c r="J69" t="n">
-        <v>7.07</v>
+      <c r="K69" t="n">
+        <v>5.03</v>
       </c>
     </row>
     <row r="70">
@@ -3236,13 +3443,16 @@
         <v>35</v>
       </c>
       <c r="H70" t="n">
-        <v>4.07</v>
+        <v>3.56</v>
       </c>
       <c r="I70" t="n">
+        <v>254</v>
+      </c>
+      <c r="J70" t="n">
         <v>18</v>
       </c>
-      <c r="J70" t="n">
-        <v>7.48</v>
+      <c r="K70" t="n">
+        <v>7.09</v>
       </c>
     </row>
     <row r="71">
@@ -3276,13 +3486,16 @@
         <v>43</v>
       </c>
       <c r="H71" t="n">
-        <v>2.93</v>
+        <v>1.03</v>
       </c>
       <c r="I71" t="n">
+        <v>1155</v>
+      </c>
+      <c r="J71" t="n">
         <v>22</v>
       </c>
-      <c r="J71" t="n">
-        <v>2.42</v>
+      <c r="K71" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="72">
@@ -3316,13 +3529,16 @@
         <v>416</v>
       </c>
       <c r="H72" t="n">
-        <v>8.390000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="I72" t="n">
+        <v>2664</v>
+      </c>
+      <c r="J72" t="n">
         <v>207</v>
       </c>
-      <c r="J72" t="n">
-        <v>9.98</v>
+      <c r="K72" t="n">
+        <v>7.77</v>
       </c>
     </row>
     <row r="73">
@@ -3356,13 +3572,16 @@
         <v>190</v>
       </c>
       <c r="H73" t="n">
-        <v>9.18</v>
+        <v>2.08</v>
       </c>
       <c r="I73" t="n">
+        <v>2675</v>
+      </c>
+      <c r="J73" t="n">
         <v>80</v>
       </c>
-      <c r="J73" t="n">
-        <v>6.47</v>
+      <c r="K73" t="n">
+        <v>2.99</v>
       </c>
     </row>
     <row r="74">
@@ -3396,13 +3615,16 @@
         <v>110</v>
       </c>
       <c r="H74" t="n">
-        <v>7.64</v>
+        <v>4.08</v>
       </c>
       <c r="I74" t="n">
+        <v>776</v>
+      </c>
+      <c r="J74" t="n">
         <v>49</v>
       </c>
-      <c r="J74" t="n">
-        <v>10.31</v>
+      <c r="K74" t="n">
+        <v>6.31</v>
       </c>
     </row>
     <row r="75">
@@ -3444,6 +3666,7 @@
       <c r="J75" t="n">
         <v>0</v>
       </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3476,13 +3699,16 @@
         <v>108</v>
       </c>
       <c r="H76" t="n">
-        <v>11.06</v>
+        <v>6.87</v>
       </c>
       <c r="I76" t="n">
+        <v>811</v>
+      </c>
+      <c r="J76" t="n">
         <v>79</v>
       </c>
-      <c r="J76" t="n">
-        <v>13.56</v>
+      <c r="K76" t="n">
+        <v>9.74</v>
       </c>
     </row>
     <row r="77">
@@ -3516,13 +3742,16 @@
         <v>49</v>
       </c>
       <c r="H77" t="n">
-        <v>6.4</v>
+        <v>4.42</v>
       </c>
       <c r="I77" t="n">
+        <v>408</v>
+      </c>
+      <c r="J77" t="n">
         <v>18</v>
       </c>
-      <c r="J77" t="n">
-        <v>7.35</v>
+      <c r="K77" t="n">
+        <v>4.41</v>
       </c>
     </row>
     <row r="78">
@@ -3556,13 +3785,16 @@
         <v>51</v>
       </c>
       <c r="H78" t="n">
-        <v>17.62</v>
+        <v>6.07</v>
       </c>
       <c r="I78" t="n">
+        <v>287</v>
+      </c>
+      <c r="J78" t="n">
         <v>13</v>
       </c>
-      <c r="J78" t="n">
-        <v>22.3</v>
+      <c r="K78" t="n">
+        <v>4.53</v>
       </c>
     </row>
     <row r="79">
@@ -3596,13 +3828,16 @@
         <v>58</v>
       </c>
       <c r="H79" t="n">
-        <v>19.66</v>
+        <v>6.1</v>
       </c>
       <c r="I79" t="n">
+        <v>308</v>
+      </c>
+      <c r="J79" t="n">
         <v>30</v>
       </c>
-      <c r="J79" t="n">
-        <v>13.64</v>
+      <c r="K79" t="n">
+        <v>9.74</v>
       </c>
     </row>
     <row r="80">
@@ -3636,13 +3871,16 @@
         <v>117</v>
       </c>
       <c r="H80" t="n">
-        <v>8.93</v>
+        <v>2.72</v>
       </c>
       <c r="I80" t="n">
+        <v>1413</v>
+      </c>
+      <c r="J80" t="n">
         <v>48</v>
       </c>
-      <c r="J80" t="n">
-        <v>9.84</v>
+      <c r="K80" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="81">
@@ -3676,13 +3914,16 @@
         <v>391</v>
       </c>
       <c r="H81" t="n">
-        <v>12.17</v>
+        <v>6.2</v>
       </c>
       <c r="I81" t="n">
+        <v>1626</v>
+      </c>
+      <c r="J81" t="n">
         <v>204</v>
       </c>
-      <c r="J81" t="n">
-        <v>16.3</v>
+      <c r="K81" t="n">
+        <v>12.55</v>
       </c>
     </row>
     <row r="82">
@@ -3716,13 +3957,16 @@
         <v>190</v>
       </c>
       <c r="H82" t="n">
-        <v>5.95</v>
+        <v>4.54</v>
       </c>
       <c r="I82" t="n">
+        <v>1525</v>
+      </c>
+      <c r="J82" t="n">
         <v>110</v>
       </c>
-      <c r="J82" t="n">
-        <v>7.67</v>
+      <c r="K82" t="n">
+        <v>7.21</v>
       </c>
     </row>
     <row r="83">
@@ -3756,13 +4000,16 @@
         <v>202</v>
       </c>
       <c r="H83" t="n">
-        <v>11.98</v>
+        <v>5.83</v>
       </c>
       <c r="I83" t="n">
+        <v>1166</v>
+      </c>
+      <c r="J83" t="n">
         <v>87</v>
       </c>
-      <c r="J83" t="n">
-        <v>12.69</v>
+      <c r="K83" t="n">
+        <v>7.46</v>
       </c>
     </row>
     <row r="84">
@@ -3796,13 +4043,16 @@
         <v>281</v>
       </c>
       <c r="H84" t="n">
-        <v>9.710000000000001</v>
+        <v>7.95</v>
       </c>
       <c r="I84" t="n">
+        <v>1593</v>
+      </c>
+      <c r="J84" t="n">
         <v>199</v>
       </c>
-      <c r="J84" t="n">
-        <v>14.69</v>
+      <c r="K84" t="n">
+        <v>12.49</v>
       </c>
     </row>
     <row r="85">
@@ -3836,13 +4086,16 @@
         <v>401</v>
       </c>
       <c r="H85" t="n">
-        <v>7.2</v>
+        <v>4.82</v>
       </c>
       <c r="I85" t="n">
+        <v>2825</v>
+      </c>
+      <c r="J85" t="n">
         <v>196</v>
       </c>
-      <c r="J85" t="n">
-        <v>9.1</v>
+      <c r="K85" t="n">
+        <v>6.94</v>
       </c>
     </row>
     <row r="86">
@@ -3876,13 +4129,16 @@
         <v>221</v>
       </c>
       <c r="H86" t="n">
-        <v>9.77</v>
+        <v>5.29</v>
       </c>
       <c r="I86" t="n">
+        <v>1114</v>
+      </c>
+      <c r="J86" t="n">
         <v>83</v>
       </c>
-      <c r="J86" t="n">
-        <v>9.07</v>
+      <c r="K86" t="n">
+        <v>7.45</v>
       </c>
     </row>
     <row r="87">
@@ -3916,13 +4172,16 @@
         <v>166</v>
       </c>
       <c r="H87" t="n">
-        <v>12.71</v>
+        <v>3.86</v>
       </c>
       <c r="I87" t="n">
+        <v>1161</v>
+      </c>
+      <c r="J87" t="n">
         <v>85</v>
       </c>
-      <c r="J87" t="n">
-        <v>13.87</v>
+      <c r="K87" t="n">
+        <v>7.32</v>
       </c>
     </row>
     <row r="88">
@@ -3956,14 +4215,17 @@
         <v>46</v>
       </c>
       <c r="H88" t="n">
-        <v>3.55</v>
+        <v>3.33</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
       </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3996,13 +4258,16 @@
         <v>54</v>
       </c>
       <c r="H89" t="n">
-        <v>9.789999999999999</v>
+        <v>1.92</v>
       </c>
       <c r="I89" t="n">
+        <v>786</v>
+      </c>
+      <c r="J89" t="n">
         <v>20</v>
       </c>
-      <c r="J89" t="n">
-        <v>3.44</v>
+      <c r="K89" t="n">
+        <v>2.54</v>
       </c>
     </row>
     <row r="90">
@@ -4036,13 +4301,16 @@
         <v>178</v>
       </c>
       <c r="H90" t="n">
-        <v>5.99</v>
+        <v>3.33</v>
       </c>
       <c r="I90" t="n">
+        <v>1781</v>
+      </c>
+      <c r="J90" t="n">
         <v>83</v>
       </c>
-      <c r="J90" t="n">
-        <v>6.91</v>
+      <c r="K90" t="n">
+        <v>4.66</v>
       </c>
     </row>
     <row r="91">
@@ -4076,13 +4344,16 @@
         <v>260</v>
       </c>
       <c r="H91" t="n">
-        <v>9.550000000000001</v>
+        <v>4.41</v>
       </c>
       <c r="I91" t="n">
+        <v>1519</v>
+      </c>
+      <c r="J91" t="n">
         <v>126</v>
       </c>
-      <c r="J91" t="n">
-        <v>9.81</v>
+      <c r="K91" t="n">
+        <v>8.289999999999999</v>
       </c>
     </row>
     <row r="92">
@@ -4116,13 +4387,16 @@
         <v>319</v>
       </c>
       <c r="H92" t="n">
-        <v>4.77</v>
+        <v>3.85</v>
       </c>
       <c r="I92" t="n">
+        <v>2695</v>
+      </c>
+      <c r="J92" t="n">
         <v>148</v>
       </c>
-      <c r="J92" t="n">
-        <v>5.64</v>
+      <c r="K92" t="n">
+        <v>5.49</v>
       </c>
     </row>
     <row r="93">
@@ -4156,12 +4430,15 @@
         <v>153</v>
       </c>
       <c r="H93" t="n">
-        <v>7.47</v>
+        <v>6.31</v>
       </c>
       <c r="I93" t="n">
+        <v>543</v>
+      </c>
+      <c r="J93" t="n">
         <v>18</v>
       </c>
-      <c r="J93" t="n">
+      <c r="K93" t="n">
         <v>3.31</v>
       </c>
     </row>
@@ -4196,13 +4473,16 @@
         <v>69</v>
       </c>
       <c r="H94" t="n">
-        <v>6.02</v>
+        <v>4.38</v>
       </c>
       <c r="I94" t="n">
+        <v>586</v>
+      </c>
+      <c r="J94" t="n">
         <v>29</v>
       </c>
-      <c r="J94" t="n">
-        <v>5.29</v>
+      <c r="K94" t="n">
+        <v>4.95</v>
       </c>
     </row>
     <row r="95">
@@ -4236,13 +4516,16 @@
         <v>8</v>
       </c>
       <c r="H95" t="n">
-        <v>7.09</v>
+        <v>2.03</v>
       </c>
       <c r="I95" t="n">
+        <v>138</v>
+      </c>
+      <c r="J95" t="n">
         <v>8</v>
       </c>
-      <c r="J95" t="n">
-        <v>13.04</v>
+      <c r="K95" t="n">
+        <v>5.8</v>
       </c>
     </row>
     <row r="96">
@@ -4276,13 +4559,16 @@
         <v>324</v>
       </c>
       <c r="H96" t="n">
-        <v>8.68</v>
+        <v>3.95</v>
       </c>
       <c r="I96" t="n">
+        <v>2724</v>
+      </c>
+      <c r="J96" t="n">
         <v>146</v>
       </c>
-      <c r="J96" t="n">
-        <v>8.19</v>
+      <c r="K96" t="n">
+        <v>5.36</v>
       </c>
     </row>
     <row r="97">
@@ -4316,13 +4602,16 @@
         <v>64</v>
       </c>
       <c r="H97" t="n">
-        <v>5.34</v>
+        <v>1.47</v>
       </c>
       <c r="I97" t="n">
+        <v>1841</v>
+      </c>
+      <c r="J97" t="n">
         <v>27</v>
       </c>
-      <c r="J97" t="n">
-        <v>3.1</v>
+      <c r="K97" t="n">
+        <v>1.47</v>
       </c>
     </row>
     <row r="98">
@@ -4356,13 +4645,16 @@
         <v>669</v>
       </c>
       <c r="H98" t="n">
-        <v>11.29</v>
+        <v>6.11</v>
       </c>
       <c r="I98" t="n">
+        <v>3315</v>
+      </c>
+      <c r="J98" t="n">
         <v>287</v>
       </c>
-      <c r="J98" t="n">
-        <v>11.83</v>
+      <c r="K98" t="n">
+        <v>8.66</v>
       </c>
     </row>
     <row r="99">
@@ -4396,13 +4688,16 @@
         <v>193</v>
       </c>
       <c r="H99" t="n">
-        <v>8.56</v>
+        <v>3.1</v>
       </c>
       <c r="I99" t="n">
+        <v>1861</v>
+      </c>
+      <c r="J99" t="n">
         <v>89</v>
       </c>
-      <c r="J99" t="n">
-        <v>7.74</v>
+      <c r="K99" t="n">
+        <v>4.78</v>
       </c>
     </row>
     <row r="100">
@@ -4436,13 +4731,16 @@
         <v>240</v>
       </c>
       <c r="H100" t="n">
-        <v>11.49</v>
+        <v>5.45</v>
       </c>
       <c r="I100" t="n">
+        <v>1174</v>
+      </c>
+      <c r="J100" t="n">
         <v>97</v>
       </c>
-      <c r="J100" t="n">
-        <v>9.970000000000001</v>
+      <c r="K100" t="n">
+        <v>8.26</v>
       </c>
     </row>
     <row r="101">
@@ -4476,13 +4774,16 @@
         <v>207</v>
       </c>
       <c r="H101" t="n">
-        <v>12.81</v>
+        <v>3.99</v>
       </c>
       <c r="I101" t="n">
+        <v>1485</v>
+      </c>
+      <c r="J101" t="n">
         <v>87</v>
       </c>
-      <c r="J101" t="n">
-        <v>10.57</v>
+      <c r="K101" t="n">
+        <v>5.86</v>
       </c>
     </row>
     <row r="102">
@@ -4516,13 +4817,16 @@
         <v>349</v>
       </c>
       <c r="H102" t="n">
-        <v>6.98</v>
+        <v>4.51</v>
       </c>
       <c r="I102" t="n">
+        <v>1909</v>
+      </c>
+      <c r="J102" t="n">
         <v>117</v>
       </c>
-      <c r="J102" t="n">
-        <v>6.65</v>
+      <c r="K102" t="n">
+        <v>6.13</v>
       </c>
     </row>
     <row r="103">
@@ -4556,13 +4860,16 @@
         <v>69</v>
       </c>
       <c r="H103" t="n">
-        <v>12.11</v>
+        <v>5.8</v>
       </c>
       <c r="I103" t="n">
+        <v>127</v>
+      </c>
+      <c r="J103" t="n">
         <v>16</v>
       </c>
-      <c r="J103" t="n">
-        <v>17.32</v>
+      <c r="K103" t="n">
+        <v>12.6</v>
       </c>
     </row>
     <row r="104">
@@ -4596,13 +4903,16 @@
         <v>210</v>
       </c>
       <c r="H104" t="n">
-        <v>7.48</v>
+        <v>3.5</v>
       </c>
       <c r="I104" t="n">
+        <v>1543</v>
+      </c>
+      <c r="J104" t="n">
         <v>70</v>
       </c>
-      <c r="J104" t="n">
-        <v>6.35</v>
+      <c r="K104" t="n">
+        <v>4.54</v>
       </c>
     </row>
     <row r="105">
@@ -4636,13 +4946,16 @@
         <v>244</v>
       </c>
       <c r="H105" t="n">
-        <v>6</v>
+        <v>3.22</v>
       </c>
       <c r="I105" t="n">
+        <v>2184</v>
+      </c>
+      <c r="J105" t="n">
         <v>104</v>
       </c>
-      <c r="J105" t="n">
-        <v>6</v>
+      <c r="K105" t="n">
+        <v>4.76</v>
       </c>
     </row>
     <row r="106">
@@ -4676,13 +4989,16 @@
         <v>391</v>
       </c>
       <c r="H106" t="n">
-        <v>8.279999999999999</v>
+        <v>4.53</v>
       </c>
       <c r="I106" t="n">
+        <v>2634</v>
+      </c>
+      <c r="J106" t="n">
         <v>190</v>
       </c>
-      <c r="J106" t="n">
-        <v>8.539999999999999</v>
+      <c r="K106" t="n">
+        <v>7.21</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +5032,16 @@
         <v>268</v>
       </c>
       <c r="H107" t="n">
-        <v>7.94</v>
+        <v>5.15</v>
       </c>
       <c r="I107" t="n">
+        <v>1478</v>
+      </c>
+      <c r="J107" t="n">
         <v>135</v>
       </c>
-      <c r="J107" t="n">
-        <v>10.35</v>
+      <c r="K107" t="n">
+        <v>9.130000000000001</v>
       </c>
     </row>
     <row r="108">
@@ -4756,13 +5075,16 @@
         <v>442</v>
       </c>
       <c r="H108" t="n">
-        <v>6.2</v>
+        <v>4.08</v>
       </c>
       <c r="I108" t="n">
+        <v>3260</v>
+      </c>
+      <c r="J108" t="n">
         <v>233</v>
       </c>
-      <c r="J108" t="n">
-        <v>8.77</v>
+      <c r="K108" t="n">
+        <v>7.15</v>
       </c>
     </row>
     <row r="109">
@@ -4796,13 +5118,16 @@
         <v>255</v>
       </c>
       <c r="H109" t="n">
-        <v>13.97</v>
+        <v>5.06</v>
       </c>
       <c r="I109" t="n">
+        <v>1259</v>
+      </c>
+      <c r="J109" t="n">
         <v>116</v>
       </c>
-      <c r="J109" t="n">
-        <v>12.39</v>
+      <c r="K109" t="n">
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="110">
@@ -4836,13 +5161,16 @@
         <v>80</v>
       </c>
       <c r="H110" t="n">
-        <v>8.31</v>
+        <v>2.12</v>
       </c>
       <c r="I110" t="n">
+        <v>1527</v>
+      </c>
+      <c r="J110" t="n">
         <v>45</v>
       </c>
-      <c r="J110" t="n">
-        <v>9.5</v>
+      <c r="K110" t="n">
+        <v>2.95</v>
       </c>
     </row>
     <row r="111">
@@ -4876,13 +5204,16 @@
         <v>82</v>
       </c>
       <c r="H111" t="n">
-        <v>16.07</v>
+        <v>5.4</v>
       </c>
       <c r="I111" t="n">
+        <v>597</v>
+      </c>
+      <c r="J111" t="n">
         <v>43</v>
       </c>
-      <c r="J111" t="n">
-        <v>17.09</v>
+      <c r="K111" t="n">
+        <v>7.2</v>
       </c>
     </row>
     <row r="112">
@@ -4916,13 +5247,16 @@
         <v>54</v>
       </c>
       <c r="H112" t="n">
-        <v>7.11</v>
+        <v>2.95</v>
       </c>
       <c r="I112" t="n">
+        <v>691</v>
+      </c>
+      <c r="J112" t="n">
         <v>22</v>
       </c>
-      <c r="J112" t="n">
-        <v>8.68</v>
+      <c r="K112" t="n">
+        <v>3.18</v>
       </c>
     </row>
     <row r="113">
@@ -4956,13 +5290,16 @@
         <v>162</v>
       </c>
       <c r="H113" t="n">
-        <v>19.1</v>
+        <v>8.41</v>
       </c>
       <c r="I113" t="n">
+        <v>838</v>
+      </c>
+      <c r="J113" t="n">
         <v>116</v>
       </c>
-      <c r="J113" t="n">
-        <v>25.42</v>
+      <c r="K113" t="n">
+        <v>13.84</v>
       </c>
     </row>
     <row r="114">
@@ -4996,13 +5333,16 @@
         <v>229</v>
       </c>
       <c r="H114" t="n">
-        <v>9.32</v>
+        <v>4.87</v>
       </c>
       <c r="I114" t="n">
+        <v>1398</v>
+      </c>
+      <c r="J114" t="n">
         <v>87</v>
       </c>
-      <c r="J114" t="n">
-        <v>6.72</v>
+      <c r="K114" t="n">
+        <v>6.22</v>
       </c>
     </row>
     <row r="115">
@@ -5036,13 +5376,16 @@
         <v>76</v>
       </c>
       <c r="H115" t="n">
-        <v>15.55</v>
+        <v>3.23</v>
       </c>
       <c r="I115" t="n">
+        <v>696</v>
+      </c>
+      <c r="J115" t="n">
         <v>23</v>
       </c>
-      <c r="J115" t="n">
-        <v>22.56</v>
+      <c r="K115" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="116">
@@ -5076,13 +5419,16 @@
         <v>316</v>
       </c>
       <c r="H116" t="n">
-        <v>5.39</v>
+        <v>3.45</v>
       </c>
       <c r="I116" t="n">
+        <v>1724</v>
+      </c>
+      <c r="J116" t="n">
         <v>111</v>
       </c>
-      <c r="J116" t="n">
-        <v>10.67</v>
+      <c r="K116" t="n">
+        <v>6.44</v>
       </c>
     </row>
     <row r="117">
@@ -5116,12 +5462,15 @@
         <v>16</v>
       </c>
       <c r="H117" t="n">
-        <v>2.45</v>
+        <v>1.96</v>
       </c>
       <c r="I117" t="n">
+        <v>193</v>
+      </c>
+      <c r="J117" t="n">
         <v>8</v>
       </c>
-      <c r="J117" t="n">
+      <c r="K117" t="n">
         <v>4.15</v>
       </c>
     </row>
@@ -5156,13 +5505,16 @@
         <v>219</v>
       </c>
       <c r="H118" t="n">
-        <v>9.93</v>
+        <v>4.23</v>
       </c>
       <c r="I118" t="n">
+        <v>1507</v>
+      </c>
+      <c r="J118" t="n">
         <v>78</v>
       </c>
-      <c r="J118" t="n">
-        <v>8.69</v>
+      <c r="K118" t="n">
+        <v>5.18</v>
       </c>
     </row>
     <row r="119">
@@ -5196,13 +5548,16 @@
         <v>75</v>
       </c>
       <c r="H119" t="n">
-        <v>5.47</v>
+        <v>2.55</v>
       </c>
       <c r="I119" t="n">
+        <v>853</v>
+      </c>
+      <c r="J119" t="n">
         <v>33</v>
       </c>
-      <c r="J119" t="n">
-        <v>5.98</v>
+      <c r="K119" t="n">
+        <v>3.87</v>
       </c>
     </row>
     <row r="120">
@@ -5236,13 +5591,16 @@
         <v>135</v>
       </c>
       <c r="H120" t="n">
-        <v>36.77</v>
+        <v>5.58</v>
       </c>
       <c r="I120" t="n">
+        <v>440</v>
+      </c>
+      <c r="J120" t="n">
         <v>33</v>
       </c>
-      <c r="J120" t="n">
-        <v>9.32</v>
+      <c r="K120" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="121">
@@ -5276,13 +5634,16 @@
         <v>132</v>
       </c>
       <c r="H121" t="n">
-        <v>4.14</v>
+        <v>2.59</v>
       </c>
       <c r="I121" t="n">
+        <v>1426</v>
+      </c>
+      <c r="J121" t="n">
         <v>45</v>
       </c>
-      <c r="J121" t="n">
-        <v>4.07</v>
+      <c r="K121" t="n">
+        <v>3.16</v>
       </c>
     </row>
     <row r="122">
@@ -5316,13 +5677,16 @@
         <v>90</v>
       </c>
       <c r="H122" t="n">
-        <v>6.83</v>
+        <v>2.9</v>
       </c>
       <c r="I122" t="n">
+        <v>911</v>
+      </c>
+      <c r="J122" t="n">
         <v>37</v>
       </c>
-      <c r="J122" t="n">
-        <v>11.42</v>
+      <c r="K122" t="n">
+        <v>4.06</v>
       </c>
     </row>
     <row r="123">
@@ -5356,13 +5720,16 @@
         <v>96</v>
       </c>
       <c r="H123" t="n">
-        <v>4.73</v>
+        <v>3.15</v>
       </c>
       <c r="I123" t="n">
+        <v>903</v>
+      </c>
+      <c r="J123" t="n">
         <v>57</v>
       </c>
-      <c r="J123" t="n">
-        <v>7.31</v>
+      <c r="K123" t="n">
+        <v>6.31</v>
       </c>
     </row>
     <row r="124">
@@ -5396,13 +5763,16 @@
         <v>81</v>
       </c>
       <c r="H124" t="n">
-        <v>8.99</v>
+        <v>5.47</v>
       </c>
       <c r="I124" t="n">
+        <v>485</v>
+      </c>
+      <c r="J124" t="n">
         <v>45</v>
       </c>
-      <c r="J124" t="n">
-        <v>11.75</v>
+      <c r="K124" t="n">
+        <v>9.279999999999999</v>
       </c>
     </row>
     <row r="125">
@@ -5436,13 +5806,16 @@
         <v>61</v>
       </c>
       <c r="H125" t="n">
-        <v>9.9</v>
+        <v>5.35</v>
       </c>
       <c r="I125" t="n">
+        <v>375</v>
+      </c>
+      <c r="J125" t="n">
         <v>33</v>
       </c>
-      <c r="J125" t="n">
-        <v>14.93</v>
+      <c r="K125" t="n">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="126">
@@ -5476,13 +5849,16 @@
         <v>172</v>
       </c>
       <c r="H126" t="n">
-        <v>8.98</v>
+        <v>5.27</v>
       </c>
       <c r="I126" t="n">
+        <v>948</v>
+      </c>
+      <c r="J126" t="n">
         <v>71</v>
       </c>
-      <c r="J126" t="n">
-        <v>9.6</v>
+      <c r="K126" t="n">
+        <v>7.49</v>
       </c>
     </row>
     <row r="127">
@@ -5516,13 +5892,16 @@
         <v>174</v>
       </c>
       <c r="H127" t="n">
-        <v>8.699999999999999</v>
+        <v>3.7</v>
       </c>
       <c r="I127" t="n">
+        <v>1302</v>
+      </c>
+      <c r="J127" t="n">
         <v>76</v>
       </c>
-      <c r="J127" t="n">
-        <v>9.289999999999999</v>
+      <c r="K127" t="n">
+        <v>5.84</v>
       </c>
     </row>
     <row r="128">
@@ -5556,13 +5935,16 @@
         <v>94</v>
       </c>
       <c r="H128" t="n">
-        <v>9.06</v>
+        <v>4.65</v>
       </c>
       <c r="I128" t="n">
+        <v>643</v>
+      </c>
+      <c r="J128" t="n">
         <v>37</v>
       </c>
-      <c r="J128" t="n">
-        <v>9.949999999999999</v>
+      <c r="K128" t="n">
+        <v>5.75</v>
       </c>
     </row>
     <row r="129">
@@ -5596,13 +5978,16 @@
         <v>18</v>
       </c>
       <c r="H129" t="n">
-        <v>23.03</v>
+        <v>2.41</v>
       </c>
       <c r="I129" t="n">
+        <v>190</v>
+      </c>
+      <c r="J129" t="n">
         <v>8</v>
       </c>
-      <c r="J129" t="n">
-        <v>7.37</v>
+      <c r="K129" t="n">
+        <v>4.21</v>
       </c>
     </row>
     <row r="130">
@@ -5636,13 +6021,16 @@
         <v>88</v>
       </c>
       <c r="H130" t="n">
-        <v>5.85</v>
+        <v>3.82</v>
       </c>
       <c r="I130" t="n">
+        <v>647</v>
+      </c>
+      <c r="J130" t="n">
         <v>36</v>
       </c>
-      <c r="J130" t="n">
-        <v>6.8</v>
+      <c r="K130" t="n">
+        <v>5.56</v>
       </c>
     </row>
     <row r="131">
@@ -5676,13 +6064,16 @@
         <v>57</v>
       </c>
       <c r="H131" t="n">
-        <v>4.17</v>
+        <v>3.13</v>
       </c>
       <c r="I131" t="n">
+        <v>684</v>
+      </c>
+      <c r="J131" t="n">
         <v>29</v>
       </c>
-      <c r="J131" t="n">
-        <v>4.82</v>
+      <c r="K131" t="n">
+        <v>4.24</v>
       </c>
     </row>
     <row r="132">
@@ -5716,13 +6107,16 @@
         <v>52</v>
       </c>
       <c r="H132" t="n">
-        <v>8.949999999999999</v>
+        <v>6.21</v>
       </c>
       <c r="I132" t="n">
+        <v>275</v>
+      </c>
+      <c r="J132" t="n">
         <v>20</v>
       </c>
-      <c r="J132" t="n">
-        <v>8.359999999999999</v>
+      <c r="K132" t="n">
+        <v>7.27</v>
       </c>
     </row>
     <row r="133">
@@ -5756,13 +6150,16 @@
         <v>52</v>
       </c>
       <c r="H133" t="n">
-        <v>10.03</v>
+        <v>1.84</v>
       </c>
       <c r="I133" t="n">
+        <v>1317</v>
+      </c>
+      <c r="J133" t="n">
         <v>35</v>
       </c>
-      <c r="J133" t="n">
-        <v>9.869999999999999</v>
+      <c r="K133" t="n">
+        <v>2.66</v>
       </c>
     </row>
     <row r="134">
@@ -5796,13 +6193,16 @@
         <v>86</v>
       </c>
       <c r="H134" t="n">
-        <v>9.31</v>
+        <v>6.73</v>
       </c>
       <c r="I134" t="n">
+        <v>317</v>
+      </c>
+      <c r="J134" t="n">
         <v>35</v>
       </c>
-      <c r="J134" t="n">
-        <v>13.88</v>
+      <c r="K134" t="n">
+        <v>11.04</v>
       </c>
     </row>
     <row r="135">
@@ -5836,13 +6236,16 @@
         <v>134</v>
       </c>
       <c r="H135" t="n">
-        <v>5.49</v>
+        <v>3.23</v>
       </c>
       <c r="I135" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J135" t="n">
         <v>51</v>
       </c>
-      <c r="J135" t="n">
-        <v>4.85</v>
+      <c r="K135" t="n">
+        <v>3.92</v>
       </c>
     </row>
     <row r="136">
@@ -5876,13 +6279,16 @@
         <v>53</v>
       </c>
       <c r="H136" t="n">
-        <v>15.36</v>
+        <v>7.4</v>
       </c>
       <c r="I136" t="n">
+        <v>272</v>
+      </c>
+      <c r="J136" t="n">
         <v>31</v>
       </c>
-      <c r="J136" t="n">
-        <v>18.01</v>
+      <c r="K136" t="n">
+        <v>11.4</v>
       </c>
     </row>
     <row r="137">
@@ -5916,13 +6322,16 @@
         <v>126</v>
       </c>
       <c r="H137" t="n">
-        <v>11.91</v>
+        <v>6.67</v>
       </c>
       <c r="I137" t="n">
+        <v>630</v>
+      </c>
+      <c r="J137" t="n">
         <v>71</v>
       </c>
-      <c r="J137" t="n">
-        <v>14.13</v>
+      <c r="K137" t="n">
+        <v>11.27</v>
       </c>
     </row>
     <row r="138">
@@ -5956,13 +6365,16 @@
         <v>85</v>
       </c>
       <c r="H138" t="n">
-        <v>12.73</v>
+        <v>7.46</v>
       </c>
       <c r="I138" t="n">
+        <v>320</v>
+      </c>
+      <c r="J138" t="n">
         <v>41</v>
       </c>
-      <c r="J138" t="n">
-        <v>17.5</v>
+      <c r="K138" t="n">
+        <v>12.81</v>
       </c>
     </row>
     <row r="139">
@@ -5996,12 +6408,15 @@
         <v>6</v>
       </c>
       <c r="H139" t="n">
-        <v>14.06</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="I139" t="n">
+        <v>27</v>
+      </c>
+      <c r="J139" t="n">
         <v>3</v>
       </c>
-      <c r="J139" t="n">
+      <c r="K139" t="n">
         <v>11.11</v>
       </c>
     </row>
@@ -6039,9 +6454,12 @@
         <v>10</v>
       </c>
       <c r="I140" t="n">
+        <v>50</v>
+      </c>
+      <c r="J140" t="n">
         <v>7</v>
       </c>
-      <c r="J140" t="n">
+      <c r="K140" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6076,13 +6494,16 @@
         <v>188</v>
       </c>
       <c r="H141" t="n">
-        <v>12.4</v>
+        <v>6.84</v>
       </c>
       <c r="I141" t="n">
+        <v>798</v>
+      </c>
+      <c r="J141" t="n">
         <v>81</v>
       </c>
-      <c r="J141" t="n">
-        <v>15.41</v>
+      <c r="K141" t="n">
+        <v>10.15</v>
       </c>
     </row>
     <row r="142">
@@ -6119,9 +6540,12 @@
         <v>21.74</v>
       </c>
       <c r="I142" t="n">
+        <v>18</v>
+      </c>
+      <c r="J142" t="n">
         <v>5</v>
       </c>
-      <c r="J142" t="n">
+      <c r="K142" t="n">
         <v>27.78</v>
       </c>
     </row>
@@ -6156,13 +6580,16 @@
         <v>6</v>
       </c>
       <c r="H143" t="n">
-        <v>8.9</v>
+        <v>3.14</v>
       </c>
       <c r="I143" t="n">
+        <v>63</v>
+      </c>
+      <c r="J143" t="n">
         <v>2</v>
       </c>
-      <c r="J143" t="n">
-        <v>11.11</v>
+      <c r="K143" t="n">
+        <v>3.17</v>
       </c>
     </row>
     <row r="144">
@@ -6196,13 +6623,16 @@
         <v>9</v>
       </c>
       <c r="H144" t="n">
-        <v>11.81</v>
+        <v>6.25</v>
       </c>
       <c r="I144" t="n">
+        <v>65</v>
+      </c>
+      <c r="J144" t="n">
         <v>5</v>
       </c>
-      <c r="J144" t="n">
-        <v>18.46</v>
+      <c r="K144" t="n">
+        <v>7.69</v>
       </c>
     </row>
     <row r="145">
@@ -6236,13 +6666,16 @@
         <v>20</v>
       </c>
       <c r="H145" t="n">
-        <v>7.56</v>
+        <v>5.6</v>
       </c>
       <c r="I145" t="n">
+        <v>120</v>
+      </c>
+      <c r="J145" t="n">
         <v>12</v>
       </c>
-      <c r="J145" t="n">
-        <v>10.83</v>
+      <c r="K145" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="146">
@@ -6276,13 +6709,16 @@
         <v>68</v>
       </c>
       <c r="H146" t="n">
-        <v>10.78</v>
+        <v>5.82</v>
       </c>
       <c r="I146" t="n">
+        <v>335</v>
+      </c>
+      <c r="J146" t="n">
         <v>29</v>
       </c>
-      <c r="J146" t="n">
-        <v>13.73</v>
+      <c r="K146" t="n">
+        <v>8.66</v>
       </c>
     </row>
     <row r="147">
@@ -6316,13 +6752,16 @@
         <v>42</v>
       </c>
       <c r="H147" t="n">
-        <v>10.68</v>
+        <v>5.83</v>
       </c>
       <c r="I147" t="n">
+        <v>232</v>
+      </c>
+      <c r="J147" t="n">
         <v>21</v>
       </c>
-      <c r="J147" t="n">
-        <v>13.36</v>
+      <c r="K147" t="n">
+        <v>9.050000000000001</v>
       </c>
     </row>
     <row r="148">
@@ -6356,13 +6795,16 @@
         <v>57</v>
       </c>
       <c r="H148" t="n">
-        <v>8.1</v>
+        <v>5.13</v>
       </c>
       <c r="I148" t="n">
+        <v>365</v>
+      </c>
+      <c r="J148" t="n">
         <v>26</v>
       </c>
-      <c r="J148" t="n">
-        <v>8.49</v>
+      <c r="K148" t="n">
+        <v>7.12</v>
       </c>
     </row>
     <row r="149">
@@ -6399,9 +6841,12 @@
         <v>6.59</v>
       </c>
       <c r="I149" t="n">
+        <v>82</v>
+      </c>
+      <c r="J149" t="n">
         <v>11</v>
       </c>
-      <c r="J149" t="n">
+      <c r="K149" t="n">
         <v>13.41</v>
       </c>
     </row>
@@ -6436,13 +6881,16 @@
         <v>73</v>
       </c>
       <c r="H150" t="n">
-        <v>6.34</v>
+        <v>5.57</v>
       </c>
       <c r="I150" t="n">
+        <v>433</v>
+      </c>
+      <c r="J150" t="n">
         <v>43</v>
       </c>
-      <c r="J150" t="n">
-        <v>11.09</v>
+      <c r="K150" t="n">
+        <v>9.93</v>
       </c>
     </row>
     <row r="151">
@@ -6476,7 +6924,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>14.29</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -6484,6 +6932,7 @@
       <c r="J151" t="n">
         <v>0</v>
       </c>
+      <c r="K151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -6516,13 +6965,16 @@
         <v>12</v>
       </c>
       <c r="H152" t="n">
-        <v>12.79</v>
+        <v>6.98</v>
       </c>
       <c r="I152" t="n">
+        <v>70</v>
+      </c>
+      <c r="J152" t="n">
         <v>7</v>
       </c>
-      <c r="J152" t="n">
-        <v>21.43</v>
+      <c r="K152" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="153">
@@ -6556,12 +7008,15 @@
         <v>23</v>
       </c>
       <c r="H153" t="n">
-        <v>11.43</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="I153" t="n">
+        <v>79</v>
+      </c>
+      <c r="J153" t="n">
         <v>9</v>
       </c>
-      <c r="J153" t="n">
+      <c r="K153" t="n">
         <v>11.39</v>
       </c>
     </row>
@@ -6596,13 +7051,16 @@
         <v>41</v>
       </c>
       <c r="H154" t="n">
-        <v>16.48</v>
+        <v>6.62</v>
       </c>
       <c r="I154" t="n">
+        <v>194</v>
+      </c>
+      <c r="J154" t="n">
         <v>15</v>
       </c>
-      <c r="J154" t="n">
-        <v>14.43</v>
+      <c r="K154" t="n">
+        <v>7.73</v>
       </c>
     </row>
     <row r="155">
@@ -6636,13 +7094,16 @@
         <v>34</v>
       </c>
       <c r="H155" t="n">
-        <v>13.33</v>
+        <v>4.72</v>
       </c>
       <c r="I155" t="n">
+        <v>231</v>
+      </c>
+      <c r="J155" t="n">
         <v>22</v>
       </c>
-      <c r="J155" t="n">
-        <v>14.29</v>
+      <c r="K155" t="n">
+        <v>9.52</v>
       </c>
     </row>
     <row r="156">
@@ -6676,13 +7137,16 @@
         <v>53</v>
       </c>
       <c r="H156" t="n">
-        <v>12.38</v>
+        <v>7.21</v>
       </c>
       <c r="I156" t="n">
+        <v>242</v>
+      </c>
+      <c r="J156" t="n">
         <v>29</v>
       </c>
-      <c r="J156" t="n">
-        <v>14.05</v>
+      <c r="K156" t="n">
+        <v>11.98</v>
       </c>
     </row>
     <row r="157">
@@ -6716,13 +7180,16 @@
         <v>29</v>
       </c>
       <c r="H157" t="n">
-        <v>25.82</v>
+        <v>13.62</v>
       </c>
       <c r="I157" t="n">
+        <v>106</v>
+      </c>
+      <c r="J157" t="n">
         <v>27</v>
       </c>
-      <c r="J157" t="n">
-        <v>33.96</v>
+      <c r="K157" t="n">
+        <v>25.47</v>
       </c>
     </row>
     <row r="158">
@@ -6756,12 +7223,15 @@
         <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>7.94</v>
+        <v>1.59</v>
       </c>
       <c r="I158" t="n">
+        <v>17</v>
+      </c>
+      <c r="J158" t="n">
         <v>1</v>
       </c>
-      <c r="J158" t="n">
+      <c r="K158" t="n">
         <v>5.88</v>
       </c>
     </row>
@@ -6799,9 +7269,12 @@
         <v>20</v>
       </c>
       <c r="I159" t="n">
+        <v>5</v>
+      </c>
+      <c r="J159" t="n">
         <v>1</v>
       </c>
-      <c r="J159" t="n">
+      <c r="K159" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6836,13 +7309,16 @@
         <v>88</v>
       </c>
       <c r="H160" t="n">
-        <v>10.95</v>
+        <v>7.3</v>
       </c>
       <c r="I160" t="n">
+        <v>361</v>
+      </c>
+      <c r="J160" t="n">
         <v>40</v>
       </c>
-      <c r="J160" t="n">
-        <v>13.85</v>
+      <c r="K160" t="n">
+        <v>11.08</v>
       </c>
     </row>
     <row r="161">
@@ -6876,13 +7352,16 @@
         <v>48</v>
       </c>
       <c r="H161" t="n">
-        <v>10.39</v>
+        <v>5.14</v>
       </c>
       <c r="I161" t="n">
+        <v>355</v>
+      </c>
+      <c r="J161" t="n">
         <v>30</v>
       </c>
-      <c r="J161" t="n">
-        <v>10.99</v>
+      <c r="K161" t="n">
+        <v>8.449999999999999</v>
       </c>
     </row>
     <row r="162">
@@ -6916,13 +7395,16 @@
         <v>1</v>
       </c>
       <c r="H162" t="n">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="I162" t="n">
+        <v>8</v>
+      </c>
+      <c r="J162" t="n">
         <v>1</v>
       </c>
-      <c r="J162" t="n">
-        <v>50</v>
+      <c r="K162" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="163">
@@ -6956,13 +7438,16 @@
         <v>98</v>
       </c>
       <c r="H163" t="n">
-        <v>8.06</v>
+        <v>4.49</v>
       </c>
       <c r="I163" t="n">
+        <v>741</v>
+      </c>
+      <c r="J163" t="n">
         <v>55</v>
       </c>
-      <c r="J163" t="n">
-        <v>9.039999999999999</v>
+      <c r="K163" t="n">
+        <v>7.42</v>
       </c>
     </row>
     <row r="164">
@@ -6996,13 +7481,16 @@
         <v>10</v>
       </c>
       <c r="H164" t="n">
-        <v>10.74</v>
+        <v>6.71</v>
       </c>
       <c r="I164" t="n">
+        <v>61</v>
+      </c>
+      <c r="J164" t="n">
         <v>8</v>
       </c>
-      <c r="J164" t="n">
-        <v>22.95</v>
+      <c r="K164" t="n">
+        <v>13.11</v>
       </c>
     </row>
     <row r="165">
@@ -7036,12 +7524,15 @@
         <v>29</v>
       </c>
       <c r="H165" t="n">
-        <v>6.19</v>
+        <v>5.44</v>
       </c>
       <c r="I165" t="n">
+        <v>180</v>
+      </c>
+      <c r="J165" t="n">
         <v>14</v>
       </c>
-      <c r="J165" t="n">
+      <c r="K165" t="n">
         <v>7.78</v>
       </c>
     </row>
@@ -7076,13 +7567,16 @@
         <v>59</v>
       </c>
       <c r="H166" t="n">
-        <v>11.34</v>
+        <v>6.69</v>
       </c>
       <c r="I166" t="n">
+        <v>234</v>
+      </c>
+      <c r="J166" t="n">
         <v>27</v>
       </c>
-      <c r="J166" t="n">
-        <v>17.52</v>
+      <c r="K166" t="n">
+        <v>11.54</v>
       </c>
     </row>
     <row r="167">
@@ -7116,13 +7610,16 @@
         <v>65</v>
       </c>
       <c r="H167" t="n">
-        <v>13.92</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="I167" t="n">
+        <v>129</v>
+      </c>
+      <c r="J167" t="n">
         <v>17</v>
       </c>
-      <c r="J167" t="n">
-        <v>14.73</v>
+      <c r="K167" t="n">
+        <v>13.18</v>
       </c>
     </row>
     <row r="168">
@@ -7156,13 +7653,16 @@
         <v>110</v>
       </c>
       <c r="H168" t="n">
-        <v>5.94</v>
+        <v>2.78</v>
       </c>
       <c r="I168" t="n">
+        <v>1095</v>
+      </c>
+      <c r="J168" t="n">
         <v>52</v>
       </c>
-      <c r="J168" t="n">
-        <v>5.02</v>
+      <c r="K168" t="n">
+        <v>4.75</v>
       </c>
     </row>
     <row r="169">
@@ -7196,13 +7696,16 @@
         <v>404</v>
       </c>
       <c r="H169" t="n">
-        <v>6.52</v>
+        <v>5.21</v>
       </c>
       <c r="I169" t="n">
+        <v>3015</v>
+      </c>
+      <c r="J169" t="n">
         <v>268</v>
       </c>
-      <c r="J169" t="n">
-        <v>9.220000000000001</v>
+      <c r="K169" t="n">
+        <v>8.890000000000001</v>
       </c>
     </row>
     <row r="170">
@@ -7236,13 +7739,16 @@
         <v>31</v>
       </c>
       <c r="H170" t="n">
-        <v>6.01</v>
+        <v>1.71</v>
       </c>
       <c r="I170" t="n">
+        <v>637</v>
+      </c>
+      <c r="J170" t="n">
         <v>12</v>
       </c>
-      <c r="J170" t="n">
-        <v>2.51</v>
+      <c r="K170" t="n">
+        <v>1.88</v>
       </c>
     </row>
     <row r="171">
@@ -7276,13 +7782,16 @@
         <v>92</v>
       </c>
       <c r="H171" t="n">
-        <v>5.68</v>
+        <v>2.92</v>
       </c>
       <c r="I171" t="n">
+        <v>880</v>
+      </c>
+      <c r="J171" t="n">
         <v>47</v>
       </c>
-      <c r="J171" t="n">
-        <v>5.8</v>
+      <c r="K171" t="n">
+        <v>5.34</v>
       </c>
     </row>
     <row r="172">
@@ -7316,13 +7825,16 @@
         <v>58</v>
       </c>
       <c r="H172" t="n">
-        <v>9.029999999999999</v>
+        <v>2.77</v>
       </c>
       <c r="I172" t="n">
+        <v>667</v>
+      </c>
+      <c r="J172" t="n">
         <v>27</v>
       </c>
-      <c r="J172" t="n">
-        <v>10.34</v>
+      <c r="K172" t="n">
+        <v>4.05</v>
       </c>
     </row>
   </sheetData>
